--- a/Team-Data/2007-08/1-17-2007-08.xlsx
+++ b/Team-Data/2007-08/1-17-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -798,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -953,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN3" t="n">
         <v>7</v>
@@ -983,13 +1050,13 @@
         <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1150,7 +1217,7 @@
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1162,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1308,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,13 +1390,13 @@
         <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
         <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
@@ -1412,34 +1479,34 @@
         <v>35.8</v>
       </c>
       <c r="J6" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
         <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.717</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T6" t="n">
         <v>44.5</v>
@@ -1463,25 +1530,25 @@
         <v>22.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1490,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1502,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.456</v>
@@ -1788,37 +1855,37 @@
         <v>18.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S8" t="n">
         <v>33.1</v>
       </c>
       <c r="T8" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
         <v>4.9</v>
@@ -1827,34 +1894,34 @@
         <v>21.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.2</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -2397,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2424,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>9</v>
@@ -2439,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2670,7 @@
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>13</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2630,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N14" t="n">
         <v>0.366</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2961,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2970,31 +3037,31 @@
         <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3173,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3492,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
@@ -3516,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,10 +3738,10 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>25</v>
@@ -3713,7 +3780,7 @@
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -4074,7 +4141,7 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4095,7 +4162,7 @@
         <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4268,7 +4335,7 @@
         <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4459,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4590,7 +4657,7 @@
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,88 +4755,88 @@
         <v>41.6</v>
       </c>
       <c r="J24" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L24" t="n">
         <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P24" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="V24" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA24" t="n">
         <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -5157,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.676</v>
+        <v>0.694</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J27" t="n">
         <v>79.09999999999999</v>
@@ -5240,13 +5307,13 @@
         <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M27" t="n">
         <v>20.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="O27" t="n">
         <v>17.3</v>
@@ -5255,25 +5322,25 @@
         <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R27" t="n">
         <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U27" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
         <v>3.8</v>
@@ -5282,19 +5349,19 @@
         <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5303,13 +5370,13 @@
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>22</v>
@@ -5333,10 +5400,10 @@
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS27" t="n">
         <v>13</v>
@@ -5348,13 +5415,13 @@
         <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW27" t="n">
         <v>26</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5494,7 +5561,7 @@
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
@@ -5506,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>2</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.55</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,25 +5847,25 @@
         <v>39.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M30" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.354</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="P30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q30" t="n">
         <v>0.747</v>
@@ -5807,46 +5874,46 @@
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
         <v>8.9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
         <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
@@ -5861,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,13 +5937,13 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
@@ -5885,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
@@ -5894,10 +5961,10 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
@@ -5906,7 +5973,7 @@
         <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-17-2007-08</t>
+          <t>2008-01-17</t>
         </is>
       </c>
     </row>
